--- a/PCB/BOM.xlsx
+++ b/PCB/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ParsaMalekpour\Documents\GitHub\TMC2160_DRIVER\PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1A26368-F60B-4486-A315-F4FA4C183E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC740795-752D-419C-AB7B-FA7B7EAC458B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="3900" windowWidth="21600" windowHeight="11295" xr2:uid="{3C0F75D5-570A-4AC0-A961-0DAB35F15390}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3C0F75D5-570A-4AC0-A961-0DAB35F15390}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="103">
   <si>
     <t>Comment</t>
   </si>
@@ -340,6 +340,12 @@
   </si>
   <si>
     <t>CAPAE1030X1050N</t>
+  </si>
+  <si>
+    <t>S4B-XH-SM4-TB(LF)(SN)</t>
+  </si>
+  <si>
+    <t>NOT MOUNTED</t>
   </si>
 </sst>
 </file>
@@ -718,7 +724,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C337631-781C-42D4-A1DA-BE954C59F3AF}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -785,7 +793,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
@@ -803,7 +811,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
